--- a/result.xlsx
+++ b/result.xlsx
@@ -2030,13 +2030,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="61" zoomScaleNormal="61" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A211" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="191.796875" customWidth="1"/>
+    <col min="1" max="1" width="198.296875" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="41.69921875" customWidth="1"/>
   </cols>
   <sheetData>
